--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2747710.863842004</v>
+        <v>2853784.461994847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8761932.412745589</v>
+        <v>8777084.327873321</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>75.4571321610379</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>164.1193238558373</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>76.81374836409672</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>38.98491195020522</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>36.89863216765678</v>
+        <v>353.7516989562985</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>32.37472395946617</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>69.63957399764172</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>108.9812949757285</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>296.2249366187697</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.95995423521121</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.12084770937717</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>113.5262552810684</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>73.74785292486213</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>120.4832454124068</v>
       </c>
       <c r="T16" t="n">
-        <v>154.0370966050008</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>54.31367585848737</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>207.8693512020457</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>119.6760079449705</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>35.23631477519741</v>
       </c>
       <c r="C25" t="n">
-        <v>141.4641157700688</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881274</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>114.4991929552555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>31.39650288673342</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>145.2857567969035</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3080,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>11.76284745948157</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>125.2851635392061</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>73.578497753872</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>73.23997380652447</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>47.4973478028577</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4183,22 +4185,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>254.2662598081692</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943748</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2271.86302612275</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2018.28196538693</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>1687.219078043359</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>1334.450422773245</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1334.450422773245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>944.3110907974333</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>724.9564054771553</v>
+        <v>1695.901286748629</v>
       </c>
       <c r="C4" t="n">
-        <v>556.0202225492484</v>
+        <v>1695.901286748629</v>
       </c>
       <c r="D4" t="n">
-        <v>556.0202225492484</v>
+        <v>1545.784647336293</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1397.8715537539</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1250.981606255989</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>2522.960629460554</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>2326.331881620416</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2326.331881620416</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>2326.331881620416</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>2326.331881620416</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.594421205412</v>
+        <v>2326.331881620416</v>
       </c>
       <c r="X4" t="n">
-        <v>906.604870307395</v>
+        <v>2098.342330722398</v>
       </c>
       <c r="Y4" t="n">
-        <v>906.604870307395</v>
+        <v>1877.549751578868</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1715.892666966216</v>
+        <v>1593.528088680778</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>2866.09759726723</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>2492.63183900615</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>2102.492507030338</v>
+        <v>1980.1279287449</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662.2721046070461</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>662.2721046070461</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>512.1554651947104</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>364.2423716123172</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335303</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>843.9205694372858</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>843.9205694372858</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4805,7 +4807,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="W8" t="n">
-        <v>2331.504681370805</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="X8" t="n">
-        <v>2331.504681370805</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
@@ -4881,22 +4883,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4990,22 +4992,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1795.080298689242</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1795.080298689242</v>
+        <v>1746.43293154362</v>
       </c>
       <c r="V10" t="n">
-        <v>1540.395810483355</v>
+        <v>1746.43293154362</v>
       </c>
       <c r="W10" t="n">
-        <v>1540.395810483355</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.406259585337</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,43 +5029,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5072,19 +5074,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.3568999154069</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C13" t="n">
-        <v>709.4207169875</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>559.3040775751642</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5275,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>577.8620388433919</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>408.925855915485</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2325.262835688941</v>
       </c>
       <c r="T16" t="n">
-        <v>2041.469518613829</v>
+        <v>2105.661370711882</v>
       </c>
       <c r="U16" t="n">
-        <v>1752.394291958027</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V16" t="n">
-        <v>1497.70980375214</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W16" t="n">
-        <v>1208.292633715179</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>980.3030828171618</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>759.5105036736317</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2940.5785039035</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C19" t="n">
-        <v>2771.642320975594</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>2621.525681563258</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>2621.525681563258</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>2474.635734065348</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>4115.110757018135</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>3860.426268812248</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W19" t="n">
-        <v>3571.009098775287</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X19" t="n">
-        <v>3343.01954787727</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y19" t="n">
-        <v>3122.22696873374</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>4359.773766166264</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576781</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>990.5373202159259</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,31 +6147,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159259</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6221,52 +6223,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3052.912304341663</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2883.976121413756</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>2733.85948200142</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.85948200142</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.96953450351</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.77343521839</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4508.13169819114</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.530233214082</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.45500655828</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.770518352393</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.353348315432</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3455.353348315432</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3234.560769171902</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2233.355914590557</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2233.355914590557</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>2728.681520806316</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>3326.060008432868</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>3715.300272664238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3044.37083828306</v>
+        <v>3205.31468543348</v>
       </c>
       <c r="C31" t="n">
-        <v>2875.434655355154</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.434655355154</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661312</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053497</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>4507.978318053497</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U31" t="n">
-        <v>4218.903091397695</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V31" t="n">
-        <v>3964.218603191808</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W31" t="n">
-        <v>3674.801433154847</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X31" t="n">
-        <v>3446.81188225683</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="Y31" t="n">
-        <v>3226.0193031133</v>
+        <v>3386.96315026372</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.272600329705</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3033.629298638938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2864.693115711031</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2714.576476298695</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>2566.663382716302</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4497.236778409374</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4497.236778409374</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4208.161551753572</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3953.477063547685</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3664.059893510725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3436.070342612707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3215.277763469177</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,34 +7189,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7247,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
         <v>1344.266747951538</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3266.742304572425</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>3097.806121644518</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.932614305901</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U40" t="n">
-        <v>4151.857387650099</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V40" t="n">
-        <v>3897.172899444212</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W40" t="n">
-        <v>3897.172899444212</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X40" t="n">
-        <v>3669.183348546195</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>3448.390769402665</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7406,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950413</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2123.082773965825</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1868.398285759938</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1578.981115722978</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.99156482496</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7889117913853</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1366.386875345992</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3240.397708662309</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C46" t="n">
-        <v>3071.461525734402</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.255922673039</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W46" t="n">
-        <v>3642.838752636078</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X46" t="n">
-        <v>3642.838752636078</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y46" t="n">
-        <v>3422.046173492548</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
   </sheetData>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>60.35797727397613</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>240.4465442417432</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>66.30572490086888</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>72.68610972170704</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>60.54304058923776</v>
       </c>
       <c r="T16" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>111.2104624337815</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>44.26829212178234</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>41.54258064659095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>45.84813034729838</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="C25" t="n">
-        <v>25.78270532855902</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>66.52709304638908</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>135.8503182118944</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.148205849665686</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.8218058926132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.74112246243847</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>75.03697526434036</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>76.60007353871531</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25792,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>212.9445005827197</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>101.1181252153547</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>31.91821458107495</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>767392.9086696224</v>
+        <v>775117.4144210145</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>767392.9086696224</v>
+        <v>775117.4144210145</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26316,46 @@
         <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309554</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309554</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744228</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744244</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744326</v>
+        <v>8727.25639174434</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744309</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-847233.5173140476</v>
+        <v>-665852.2328547139</v>
       </c>
       <c r="C6" t="n">
-        <v>481511.2284135446</v>
+        <v>448899.5507212061</v>
       </c>
       <c r="D6" t="n">
-        <v>481511.2284135447</v>
+        <v>288884.0879732069</v>
       </c>
       <c r="E6" t="n">
-        <v>230633.6967212486</v>
+        <v>230633.6967212483</v>
       </c>
       <c r="F6" t="n">
+        <v>556046.1585286037</v>
+      </c>
+      <c r="G6" t="n">
+        <v>556046.1585286038</v>
+      </c>
+      <c r="H6" t="n">
+        <v>556046.1585286037</v>
+      </c>
+      <c r="I6" t="n">
+        <v>556046.1585286036</v>
+      </c>
+      <c r="J6" t="n">
+        <v>388440.9807186211</v>
+      </c>
+      <c r="K6" t="n">
         <v>556046.1585286035</v>
       </c>
-      <c r="G6" t="n">
-        <v>556046.1585286037</v>
-      </c>
-      <c r="H6" t="n">
-        <v>556046.1585286035</v>
-      </c>
-      <c r="I6" t="n">
-        <v>556046.1585286035</v>
-      </c>
-      <c r="J6" t="n">
-        <v>338514.956131326</v>
-      </c>
-      <c r="K6" t="n">
-        <v>556046.1585286031</v>
-      </c>
       <c r="L6" t="n">
-        <v>556046.1585286034</v>
+        <v>507752.1885204126</v>
       </c>
       <c r="M6" t="n">
         <v>470991.1305930918</v>
       </c>
       <c r="N6" t="n">
+        <v>556046.1585286035</v>
+      </c>
+      <c r="O6" t="n">
         <v>556046.1585286036</v>
-      </c>
-      <c r="O6" t="n">
-        <v>556046.1585286034</v>
       </c>
       <c r="P6" t="n">
         <v>556046.1585286035</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.745141363201234e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.745141363201234e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.745141363201234e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>190.8166233022541</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.745141363201234e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.745141363201234e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112239</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>42.5388611243965</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>69.62021428247245</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>62.57266046936839</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>328.3742596033508</v>
+        <v>11.52119281470902</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>113.0463240634651</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>216.8834243389493</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>94.93667516389159</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>53.01603209864328</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28064,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>177.588995040958</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>196.0909904962357</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-8.745141363201234e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29329,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29986,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>459.3154675919703</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>232.7599890885195</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>641.2555750770852</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,22 +33259,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>524.5136961554238</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33497,19 +33499,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>689.3300812557329</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>187.2159464875253</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33898,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N39" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34126,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>489.289183278307</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>316.2462973459355</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>176.8386996048307</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>538.1269048795934</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>316.7192231475259</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>98.7855816741893</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>509.9138629937518</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>393.1719840720905</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>557.9883691723996</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>55.87423440419198</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N39" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>357.9474711949737</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.264523259914</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2853784.461994847</v>
+        <v>2849688.820490081</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>253.8270880911234</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>164.1193238558373</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>23.94563726208645</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>38.98491195020522</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>353.7516989562985</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>260.9541233242809</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>5.115799983896106</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>69.63957399764172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>108.9812949757285</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.1056687634345</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>90.12084770937717</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.5262552810684</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>120.4832454124068</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>207.8693512020457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>119.6760079449705</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>177.9413471369465</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.23631477519741</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>31.39650288673342</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>39.19314274110882</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>72.77126028643559</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>104.4262124629293</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>254.2662598081692</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974333</v>
+        <v>784.9973385935641</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>784.9973385935641</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>784.9973385935641</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>784.9973385935641</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>374.0114338039565</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2271.86302612275</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2018.28196538693</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1687.219078043359</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1334.450422773245</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1334.450422773245</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y2" t="n">
-        <v>944.3110907974333</v>
+        <v>1171.597178657686</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2362.9309660677</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1695.901286748629</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>1695.901286748629</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D4" t="n">
-        <v>1545.784647336293</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E4" t="n">
-        <v>1397.8715537539</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.981606255989</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>75.43429895394902</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2522.960629460554</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2326.331881620416</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2326.331881620416</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2326.331881620416</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>2326.331881620416</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>2326.331881620416</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>2098.342330722398</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>1877.549751578868</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1593.528088680778</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1980.1279287449</v>
+        <v>2298.749304840276</v>
       </c>
       <c r="Y5" t="n">
-        <v>1980.1279287449</v>
+        <v>1908.609972864464</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>1092.885047004312</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.86271359008</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.86271359008</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="8">
@@ -4801,52 +4801,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.233036999167</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3105.233036999167</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.233036999167</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.233036999167</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
         <v>2731.767278738087</v>
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1717.155334519319</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1495.388719088845</v>
       </c>
       <c r="U10" t="n">
-        <v>1746.43293154362</v>
+        <v>1206.285852214489</v>
       </c>
       <c r="V10" t="n">
-        <v>1746.43293154362</v>
+        <v>951.6013640086019</v>
       </c>
       <c r="W10" t="n">
-        <v>1457.015761506659</v>
+        <v>662.1841939716412</v>
       </c>
       <c r="X10" t="n">
-        <v>1229.026210608642</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y10" t="n">
-        <v>1008.233631465111</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5366,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2325.262835688941</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2105.661370711882</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5603,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5831,7 +5831,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
@@ -5840,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101294</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>296.7882229101294</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3205.31468543348</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>3897.172899444211</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W31" t="n">
-        <v>3607.75572940725</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X31" t="n">
-        <v>3607.75572940725</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y31" t="n">
-        <v>3386.96315026372</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6928,61 +6928,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7077,22 +7077,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2341.482060890433</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2341.482060890433</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2052.406834234631</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1797.722346028744</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,16 +7499,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,19 +7736,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
         <v>779.6143379232838</v>
@@ -7797,7 +7797,7 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>2123.082773965825</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1868.398285759938</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1578.981115722978</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1350.99156482496</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.0329012241561</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.35797727397613</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>240.4465442417432</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>138.9393975111054</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.30572490086888</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>60.54304058923776</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.26829212178234</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>45.84813034729838</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.6433062151483</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>135.8503182118944</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>212.9445005827192</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>144.6341900408527</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>45.44677382459308</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>76.60007353871531</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -26079,7 +26079,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>31.91821458107495</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.876258416</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>6.996113090560987e-11</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>6.996113090560987e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819058</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.996113090560987e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,10 +26423,10 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744228</v>
+        <v>8727.256391744355</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
@@ -26435,13 +26435,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.25639174434</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
@@ -26450,13 +26450,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744348</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744344</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26524,46 +26524,46 @@
         <v>-665852.2328547139</v>
       </c>
       <c r="C6" t="n">
-        <v>448899.5507212061</v>
+        <v>448899.5507212058</v>
       </c>
       <c r="D6" t="n">
-        <v>288884.0879732069</v>
+        <v>288884.0879732068</v>
       </c>
       <c r="E6" t="n">
-        <v>230633.6967212483</v>
+        <v>230286.3174668919</v>
       </c>
       <c r="F6" t="n">
-        <v>556046.1585286037</v>
+        <v>555698.7792742464</v>
       </c>
       <c r="G6" t="n">
-        <v>556046.1585286038</v>
+        <v>555698.7792742468</v>
       </c>
       <c r="H6" t="n">
-        <v>556046.1585286037</v>
+        <v>555698.7792742469</v>
       </c>
       <c r="I6" t="n">
-        <v>556046.1585286036</v>
+        <v>555698.7792742464</v>
       </c>
       <c r="J6" t="n">
-        <v>388440.9807186211</v>
+        <v>388093.6014642642</v>
       </c>
       <c r="K6" t="n">
-        <v>556046.1585286035</v>
+        <v>555698.7792742468</v>
       </c>
       <c r="L6" t="n">
-        <v>507752.1885204126</v>
+        <v>507404.8092660558</v>
       </c>
       <c r="M6" t="n">
-        <v>470991.1305930918</v>
+        <v>470643.7513387348</v>
       </c>
       <c r="N6" t="n">
-        <v>556046.1585286035</v>
+        <v>555698.7792742468</v>
       </c>
       <c r="O6" t="n">
-        <v>556046.1585286036</v>
+        <v>555698.7792742465</v>
       </c>
       <c r="P6" t="n">
-        <v>556046.1585286035</v>
+        <v>555698.7792742467</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.745141363201234e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,13 +27017,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.745141363201234e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>157.7206146818305</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>42.5388611243965</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>80.85095794181413</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>62.57266046936839</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>11.52119281470902</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>108.7769773541881</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>174.7161801980412</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>216.8834243389493</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>94.93667516389159</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>70.66335656800737</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>196.0909904962357</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.745141363201234e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>210.3948924365565</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,34 +32785,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>705.9257335045844</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,22 +33742,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,37 +33973,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543365</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,37 +34210,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,37 +34447,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34786,22 +34786,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>546.4575832202792</v>
       </c>
       <c r="P3" t="n">
         <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.8386996048307</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>538.1269048795934</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>474.3640795072284</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35038,7 +35038,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>68.26085851453816</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>574.5840214212511</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>35.97859357997754</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2849688.820490081</v>
+        <v>2851449.350792867</v>
       </c>
     </row>
     <row r="7">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>253.8270880911234</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>186.1518470411447</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>79.41653965146619</v>
       </c>
       <c r="I4" t="n">
-        <v>23.94563726208645</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>306.2980789193013</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -916,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>260.9541233242809</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.115799983896106</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542857</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>201.6622187863195</v>
+        <v>201.6622187863204</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>119.1056687634345</v>
+        <v>20.45352712646429</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710091</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518785</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.9413471369465</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757823</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>26.05480806223599</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>39.19314274110882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>72.77126028643559</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>98.84732537601391</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59.44001103519365</v>
+        <v>84.53948348634594</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>784.9973385935641</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="C2" t="n">
-        <v>784.9973385935641</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="D2" t="n">
-        <v>784.9973385935641</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="E2" t="n">
-        <v>784.9973385935641</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F2" t="n">
-        <v>374.0114338039565</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,13 +4327,13 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2374.307159671727</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2374.307159671727</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>2043.244272328157</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918766</v>
+        <v>1690.475617058043</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657686</v>
+        <v>1317.009858796963</v>
       </c>
       <c r="Y2" t="n">
-        <v>1171.597178657686</v>
+        <v>926.8705268211511</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="C4" t="n">
-        <v>837.0793422748035</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624677</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800746</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821642</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1731970904428</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="H4" t="n">
-        <v>75.43429895394902</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>580.2476435302235</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>131.4655134886761</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1522.010132800342</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C5" t="n">
-        <v>1522.010132800342</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>1146.776328918641</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>1146.776328918641</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>2298.749304840276</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1908.609972864464</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919906</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.2765195627319</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354876</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374703</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.4439942939401</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="8">
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4822,28 +4822,28 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="X8" t="n">
         <v>3121.906610713899</v>
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1717.155334519319</v>
+        <v>1906.634419677923</v>
       </c>
       <c r="T10" t="n">
-        <v>1495.388719088845</v>
+        <v>1906.634419677923</v>
       </c>
       <c r="U10" t="n">
-        <v>1206.285852214489</v>
+        <v>1617.531552803567</v>
       </c>
       <c r="V10" t="n">
-        <v>951.6013640086019</v>
+        <v>1362.84706459768</v>
       </c>
       <c r="W10" t="n">
-        <v>662.1841939716412</v>
+        <v>1073.429894560719</v>
       </c>
       <c r="X10" t="n">
-        <v>434.1946430736239</v>
+        <v>845.4403436627018</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5506,34 +5506,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5986,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,25 +6205,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V31" t="n">
-        <v>1868.398285759938</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.9487421954783</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C34" t="n">
-        <v>491.0125592675714</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2123.556221965915</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1834.480995310113</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V34" t="n">
-        <v>1579.796507104226</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W34" t="n">
-        <v>1290.379337067265</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X34" t="n">
-        <v>1062.389786169248</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y34" t="n">
-        <v>841.597207025718</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="35">
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7080,13 +7080,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7326,40 +7326,40 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
         <v>2035.268256189238</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D43" t="n">
-        <v>377.6556127449245</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E43" t="n">
-        <v>377.6556127449245</v>
+        <v>403.0086152208358</v>
       </c>
       <c r="F43" t="n">
-        <v>377.6556127449245</v>
+        <v>403.0086152208358</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7663,13 +7663,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241561</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>138.9393975111054</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>40.6433062151483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>40.32043864788569</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>212.9445005827192</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>144.6341900408527</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>187.3371490132302</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>106.0841272570752</v>
+        <v>80.9846548059229</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="I2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26374,10 +26374,10 @@
         <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819058</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.136976983</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309551</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744355</v>
+        <v>8727.256391744202</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
@@ -26438,10 +26438,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
@@ -26453,10 +26453,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744348</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665852.2328547139</v>
+        <v>-665852.2328547135</v>
       </c>
       <c r="C6" t="n">
-        <v>448899.5507212058</v>
+        <v>448899.5507212059</v>
       </c>
       <c r="D6" t="n">
-        <v>288884.0879732068</v>
+        <v>288884.0879732064</v>
       </c>
       <c r="E6" t="n">
-        <v>230286.3174668919</v>
+        <v>230598.9587958127</v>
       </c>
       <c r="F6" t="n">
-        <v>555698.7792742464</v>
+        <v>556011.4206031682</v>
       </c>
       <c r="G6" t="n">
-        <v>555698.7792742468</v>
+        <v>556011.4206031681</v>
       </c>
       <c r="H6" t="n">
-        <v>555698.7792742469</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="I6" t="n">
-        <v>555698.7792742464</v>
+        <v>556011.420603168</v>
       </c>
       <c r="J6" t="n">
-        <v>388093.6014642642</v>
+        <v>388406.2427931852</v>
       </c>
       <c r="K6" t="n">
-        <v>555698.7792742468</v>
+        <v>556011.420603168</v>
       </c>
       <c r="L6" t="n">
-        <v>507404.8092660558</v>
+        <v>507717.4505949771</v>
       </c>
       <c r="M6" t="n">
-        <v>470643.7513387348</v>
+        <v>470956.3926676561</v>
       </c>
       <c r="N6" t="n">
-        <v>555698.7792742468</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="O6" t="n">
-        <v>555698.7792742465</v>
+        <v>556011.4206031682</v>
       </c>
       <c r="P6" t="n">
-        <v>555698.7792742467</v>
+        <v>556011.4206031681</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>157.7206146818305</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.50633793908901</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>67.83496950366265</v>
       </c>
       <c r="I4" t="n">
-        <v>80.85095794181413</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>100.5779668224101</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>108.7769773541881</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>174.7161801980412</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27830,10 +27830,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921495</v>
+        <v>168.0688818921486</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>70.66335656800737</v>
+        <v>169.3154982049776</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28092,19 +28092,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.25604018853237e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,34 +31278,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200311</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543365</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202792</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>474.3640795072284</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366978</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997754</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
